--- a/ARDUINO/calculs.xlsx
+++ b/ARDUINO/calculs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>V</t>
   </si>
@@ -44,12 +44,28 @@
   <si>
     <t>Δ/2 = Errmax</t>
   </si>
+  <si>
+    <t>n (bits)</t>
+  </si>
+  <si>
+    <t>D (volts)</t>
+  </si>
+  <si>
+    <t>Δ (volts)</t>
+  </si>
+  <si>
+    <t>V = N x D / (2^n)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +75,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -154,10 +177,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -176,10 +200,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -191,8 +215,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,39 +513,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E3:H22"/>
+  <dimension ref="E3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:8">
+    <row r="3" spans="5:16">
       <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="5:8">
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="5:16">
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="5:8">
+    <row r="5" spans="5:16">
       <c r="E5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="5:8">
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="5:16">
       <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
@@ -525,8 +561,14 @@
         <f>5/4</f>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="7" spans="5:8">
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="7" spans="5:16">
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
@@ -534,8 +576,15 @@
         <f>F6/2</f>
         <v>0.625</v>
       </c>
-    </row>
-    <row r="8" spans="5:8">
+      <c r="J7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <f>K6/(2^K5)</f>
+        <v>0.41249999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16">
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,8 +597,15 @@
       <c r="H8" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="5:8">
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <f>K7/2</f>
+        <v>0.20624999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="5:16">
       <c r="E9" s="3">
         <v>0</v>
       </c>
@@ -564,8 +620,26 @@
         <f xml:space="preserve"> ABS(G9-E9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="5:8">
+      <c r="J9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16">
       <c r="E10" s="3">
         <v>0.624</v>
       </c>
@@ -580,8 +654,30 @@
         <f t="shared" ref="H10:H22" si="1" xml:space="preserve"> ABS(G10-E10)</f>
         <v>0.624</v>
       </c>
-    </row>
-    <row r="11" spans="5:8">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <f>INT((J10+$K$8)/$K$7)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>K10*$K$6/(2^$K$5)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <f>ABS(L10-J10)</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>O9+$K$8</f>
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.20624999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="5:16">
       <c r="E11" s="3">
         <v>0.626</v>
       </c>
@@ -596,8 +692,30 @@
         <f t="shared" si="1"/>
         <v>0.624</v>
       </c>
-    </row>
-    <row r="12" spans="5:8">
+      <c r="J11" s="1">
+        <v>0.20624000000000001</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11:K26" si="2">INT((J11+$K$8)/$K$7)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ref="L11:L33" si="3">K11*$K$6/(2^$K$5)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" ref="M11:M33" si="4">ABS(L11-J11)</f>
+        <v>0.20624000000000001</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O25" si="5">O10+$K$8</f>
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="P11">
+        <v>0.41249999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16">
       <c r="E12" s="3">
         <v>1.25</v>
       </c>
@@ -612,8 +730,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="5:8">
+      <c r="J12" s="1">
+        <v>0.20626</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="4"/>
+        <v>0.20623999999999998</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>0.61874999999999991</v>
+      </c>
+      <c r="P12">
+        <v>0.61874999999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="5:16">
       <c r="E13" s="3">
         <v>1.87</v>
       </c>
@@ -628,8 +768,30 @@
         <f t="shared" si="1"/>
         <v>0.62000000000000011</v>
       </c>
-    </row>
-    <row r="14" spans="5:8">
+      <c r="J13" s="1">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="P13">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="5:16">
       <c r="E14" s="3">
         <v>1.88</v>
       </c>
@@ -644,8 +806,30 @@
         <f t="shared" si="1"/>
         <v>0.62000000000000011</v>
       </c>
-    </row>
-    <row r="15" spans="5:8">
+      <c r="J14" s="1">
+        <v>0.61873999999999996</v>
+      </c>
+      <c r="K14" s="1">
+        <f>INT((J14+$K$8)/$K$7)</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="4"/>
+        <v>0.20623999999999998</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>1.03125</v>
+      </c>
+      <c r="P14">
+        <v>1.03125</v>
+      </c>
+    </row>
+    <row r="15" spans="5:16">
       <c r="E15" s="3">
         <v>2.5</v>
       </c>
@@ -660,8 +844,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="5:8">
+      <c r="J15" s="1">
+        <v>0.61875999999999998</v>
+      </c>
+      <c r="K15" s="1">
+        <f>INT((J15+$K$8)/$K$7)</f>
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.20623999999999998</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>1.2375</v>
+      </c>
+      <c r="P15" s="13">
+        <v>1.2375</v>
+      </c>
+    </row>
+    <row r="16" spans="5:16">
       <c r="E16" s="3">
         <v>3.12</v>
       </c>
@@ -676,8 +882,30 @@
         <f t="shared" si="1"/>
         <v>0.62000000000000011</v>
       </c>
-    </row>
-    <row r="17" spans="5:8">
+      <c r="J16" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="K16" s="1">
+        <f>INT((J16+$K$8)/$K$7)</f>
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>1.4437500000000001</v>
+      </c>
+      <c r="P16">
+        <v>1.4437500000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16">
       <c r="E17" s="3">
         <v>3.13</v>
       </c>
@@ -692,8 +920,30 @@
         <f t="shared" si="1"/>
         <v>0.62000000000000011</v>
       </c>
-    </row>
-    <row r="18" spans="5:8">
+      <c r="J17" s="1">
+        <v>1.0312399999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <f>INT((J17+$K$8)/$K$7)</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.20623999999999998</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="P17">
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16">
       <c r="E18" s="3">
         <v>3.75</v>
       </c>
@@ -708,8 +958,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="5:8">
+      <c r="J18" s="1">
+        <v>1.03125</v>
+      </c>
+      <c r="K18" s="1">
+        <f>INT((J18+$K$8)/$K$7)</f>
+        <v>3</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2374999999999998</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="4"/>
+        <v>0.20624999999999982</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>1.8562500000000002</v>
+      </c>
+      <c r="P18">
+        <v>1.85625</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16">
       <c r="E19" s="4">
         <v>4.37</v>
       </c>
@@ -724,8 +996,29 @@
         <f t="shared" si="1"/>
         <v>0.62000000000000011</v>
       </c>
-    </row>
-    <row r="20" spans="5:8">
+      <c r="J19" s="14">
+        <v>1.2375</v>
+      </c>
+      <c r="K19" s="1">
+        <f>INT((J19+$K$8)/$K$7)</f>
+        <v>3</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="3"/>
+        <v>1.2374999999999998</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>2.0625</v>
+      </c>
+      <c r="P19">
+        <v>2.0625</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16">
       <c r="E20" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -740,8 +1033,30 @@
         <f t="shared" si="1"/>
         <v>0.84999999999999964</v>
       </c>
-    </row>
-    <row r="21" spans="5:8">
+      <c r="J20" s="1">
+        <v>1.44374</v>
+      </c>
+      <c r="K20" s="1">
+        <f>INT((J20+$K$8)/$K$7)</f>
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2374999999999998</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2062400000000002</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>2.2687499999999998</v>
+      </c>
+      <c r="P20">
+        <v>2.2687499999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16">
       <c r="E21" s="4">
         <v>4.8</v>
       </c>
@@ -756,8 +1071,30 @@
         <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="5:8">
+      <c r="J21" s="1">
+        <v>1.4437599999999999</v>
+      </c>
+      <c r="K21" s="1">
+        <f>INT((J21+$K$8)/$K$7)</f>
+        <v>4</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="3"/>
+        <v>1.65</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="4"/>
+        <v>0.20623999999999998</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>2.4749999999999996</v>
+      </c>
+      <c r="P21">
+        <v>2.4749999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16">
       <c r="E22" s="4">
         <v>5</v>
       </c>
@@ -771,6 +1108,233 @@
       <c r="H22" s="3">
         <f t="shared" si="1"/>
         <v>1.25</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="K22" s="1">
+        <f>INT((J22+$K$8)/$K$7)</f>
+        <v>4</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="3"/>
+        <v>1.65</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>2.6812499999999995</v>
+      </c>
+      <c r="P22">
+        <v>2.6812499999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16">
+      <c r="J23" s="1">
+        <v>1.8562399999999999</v>
+      </c>
+      <c r="K23" s="1">
+        <f>INT((J23+$K$8)/$K$7)</f>
+        <v>4</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.65</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="4"/>
+        <v>0.20623999999999998</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>2.8874999999999993</v>
+      </c>
+      <c r="P23">
+        <v>2.8874999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16">
+      <c r="J24" s="1">
+        <v>1.85626</v>
+      </c>
+      <c r="K24" s="1">
+        <f>INT((J24+$K$8)/$K$7)</f>
+        <v>5</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0625</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="4"/>
+        <v>0.20623999999999998</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>3.0937499999999991</v>
+      </c>
+      <c r="P24">
+        <v>3.09375</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16">
+      <c r="J25" s="1">
+        <v>2.0625</v>
+      </c>
+      <c r="K25" s="1">
+        <f>INT((J25+$K$8)/$K$7)</f>
+        <v>5</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0625</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>3.2999999999999989</v>
+      </c>
+      <c r="P25">
+        <v>3.2999999999999989</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16">
+      <c r="J26" s="1">
+        <v>2.2687400000000002</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" ref="K26:K34" si="6">INT((J26+$K$8)/$K$7)</f>
+        <v>5</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0625</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2062400000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="5:16">
+      <c r="J27" s="1">
+        <v>2.2687599999999999</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4749999999999996</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="4"/>
+        <v>0.20623999999999976</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16">
+      <c r="J28" s="1">
+        <v>2.4749999999999996</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4749999999999996</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16">
+      <c r="J29" s="1">
+        <v>2.6812399999999998</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4749999999999996</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2062400000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="5:16">
+      <c r="J30" s="1">
+        <v>2.68126</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8874999999999997</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="4"/>
+        <v>0.20623999999999976</v>
+      </c>
+    </row>
+    <row r="31" spans="5:16">
+      <c r="J31" s="1">
+        <v>2.8874999999999993</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8874999999999997</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="5:16">
+      <c r="J32" s="1">
+        <v>3.0937399999999999</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8874999999999997</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2062400000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13">
+      <c r="J33" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="K33" s="1">
+        <v>7</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8874999999999997</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="4"/>
+        <v>0.41250000000000009</v>
       </c>
     </row>
   </sheetData>
